--- a/FPR1140-NGFW-K9.xlsx
+++ b/FPR1140-NGFW-K9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D198EF7A-2CE0-4720-BB75-F775D8759E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC4477-1C2A-48F8-8E8A-4EF74F2D856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="14400" windowHeight="8542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPR1140-NGFW-K9" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Nguồn cung cấp</t>
-  </si>
-  <si>
-    <t>Giao diện</t>
   </si>
   <si>
     <t>Thông số kỹ thuật</t>
@@ -72,10 +69,6 @@
   </si>
   <si>
     <t>6 Gbps</t>
-  </si>
-  <si>
-    <t>8 x RJ-45
-4 x SFP</t>
   </si>
   <si>
     <t>Tích hợp ổ cứng</t>
@@ -188,6 +181,13 @@
   <si>
     <t xml:space="preserve">Có sẵn; cho phép phát hiện, chặn, theo dõi, phân tích và ngăn chặn phần mềm độc hại có mục tiêu và dai dẳng, giải quyết tình trạng tấn công liên tục cả trong và sau các cuộc tấn công
 Có sẵn tuỳ chọn tích hợp threat correlation với  Cisco AMP cho Endpoints </t>
+  </si>
+  <si>
+    <t>Số cổng</t>
+  </si>
+  <si>
+    <t>8 cổng RJ-45
+4 cổng SFP</t>
   </si>
 </sst>
 </file>
@@ -15053,194 +15053,194 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.86328125" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="B14" s="6">
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/FPR1140-NGFW-K9.xlsx
+++ b/FPR1140-NGFW-K9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC4477-1C2A-48F8-8E8A-4EF74F2D856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666BF3DC-346F-4192-8837-A90904613F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Nguồn cung cấp</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>1.4 Gbps</t>
-  </si>
-  <si>
-    <t>6 Gbps</t>
   </si>
   <si>
     <t>Tích hợp ổ cứng</t>
@@ -108,21 +105,6 @@
   </si>
   <si>
     <t>Lọc URL: số lượng URL được phân loại</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall throughput</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall throughput (multiprotocol)</t>
-  </si>
-  <si>
-    <t>Kết nối tường lửa đồng thời</t>
-  </si>
-  <si>
-    <t>Kết nối mới mỗi giây</t>
-  </si>
-  <si>
-    <t>Thông lượng IPsec VPN throughput (450B UDP L2L test)</t>
   </si>
   <si>
     <t>Quản lý cục bộ, dựa trên web để triển khai ở quy mô nhỏ</t>
@@ -174,9 +156,6 @@
       </rPr>
       <t xml:space="preserve"> Tiêu chuẩn, với thông tin về mối đe dọa IP, URL và DNS</t>
     </r>
-  </si>
-  <si>
-    <t>Số VPN Peers tối đa</t>
   </si>
   <si>
     <t xml:space="preserve">Có sẵn; cho phép phát hiện, chặn, theo dõi, phân tích và ngăn chặn phần mềm độc hại có mục tiêu và dai dẳng, giải quyết tình trạng tấn công liên tục cả trong và sau các cuộc tấn công
@@ -282,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -295,9 +274,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15049,7 +15025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -15068,179 +15044,131 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
+      <c r="A2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
+      <c r="A3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
+      <c r="A4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
+      <c r="A5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
+      <c r="A6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
+      <c r="A7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
+      <c r="A8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
+      <c r="A9" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
+      <c r="A10" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
+      <c r="A11" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
+    <row r="13" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>400000</v>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>28</v>
+      <c r="A15" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="B15" s="6">
-        <v>100000</v>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/FPR1140-NGFW-K9.xlsx
+++ b/FPR1140-NGFW-K9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666BF3DC-346F-4192-8837-A90904613F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F32EF-CAD9-407F-A8EB-69938A9B0595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Lọc URL: số lượng URL được phân loại</t>
   </si>
   <si>
-    <t>Quản lý cục bộ, dựa trên web để triển khai ở quy mô nhỏ</t>
-  </si>
-  <si>
     <t>Tích hợp, đầu vào single AC
 100 to 240V AC
 50 to 60 Hz</t>
@@ -167,6 +164,9 @@
   <si>
     <t>8 cổng RJ-45
 4 cổng SFP</t>
+  </si>
+  <si>
+    <t>Web UI, CLI</t>
   </si>
 </sst>
 </file>
@@ -15112,7 +15112,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15120,15 +15120,15 @@
         <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
@@ -15136,7 +15136,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -15144,7 +15144,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15155,12 +15155,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
